--- a/www/IndicatorsPerCountry/SaudiArabia_CopperProduction_TerritorialRef_2000_2012_CCode_682.xlsx
+++ b/www/IndicatorsPerCountry/SaudiArabia_CopperProduction_TerritorialRef_2000_2012_CCode_682.xlsx
@@ -162,13 +162,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/SaudiArabia_CopperProduction_TerritorialRef_2000_2012_CCode_682.xlsx
+++ b/www/IndicatorsPerCountry/SaudiArabia_CopperProduction_TerritorialRef_2000_2012_CCode_682.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="38">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,100 +39,58 @@
     <t>0</t>
   </si>
   <si>
-    <t>4</t>
+    <t>0.3</t>
   </si>
   <si>
-    <t>12</t>
+    <t>0.8</t>
   </si>
   <si>
-    <t>15</t>
+    <t>0.9</t>
   </si>
   <si>
-    <t>80</t>
+    <t>0.925</t>
   </si>
   <si>
-    <t>95</t>
+    <t>0.917</t>
   </si>
   <si>
-    <t>100</t>
+    <t>0.834</t>
   </si>
   <si>
-    <t>120.3</t>
+    <t>0.84</t>
   </si>
   <si>
-    <t>120.9</t>
+    <t>0.782</t>
   </si>
   <si>
-    <t>121.6</t>
+    <t>0.821</t>
   </si>
   <si>
-    <t>123.4</t>
+    <t>0.652</t>
   </si>
   <si>
-    <t>123.9</t>
+    <t>0.668</t>
   </si>
   <si>
-    <t>90.1</t>
+    <t>0.73</t>
   </si>
   <si>
-    <t>105.1</t>
+    <t>0.75</t>
   </si>
   <si>
-    <t>96.9</t>
+    <t>1.645</t>
   </si>
   <si>
-    <t>99.6</t>
+    <t>1.719</t>
   </si>
   <si>
-    <t>100.4</t>
+    <t>1.603</t>
   </si>
   <si>
-    <t>101.9</t>
+    <t>1.6</t>
   </si>
   <si>
-    <t>125.3</t>
-  </si>
-  <si>
-    <t>125.4</t>
-  </si>
-  <si>
-    <t>126.7</t>
-  </si>
-  <si>
-    <t>125.227</t>
-  </si>
-  <si>
-    <t>133.053</t>
-  </si>
-  <si>
-    <t>131.075</t>
-  </si>
-  <si>
-    <t>131.6</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>126.547</t>
-  </si>
-  <si>
-    <t>129.693</t>
-  </si>
-  <si>
-    <t>130.16</t>
-  </si>
-  <si>
-    <t>126.8</t>
-  </si>
-  <si>
-    <t>129.8</t>
-  </si>
-  <si>
-    <t>124.985</t>
-  </si>
-  <si>
-    <t>121.59</t>
+    <t>2.15</t>
   </si>
   <si>
     <t>Description</t>
@@ -4500,7 +4458,7 @@
         <v>1978.0</v>
       </c>
       <c r="E252" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253">
@@ -4517,7 +4475,7 @@
         <v>1979.0</v>
       </c>
       <c r="E253" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254">
@@ -4534,7 +4492,7 @@
         <v>1980.0</v>
       </c>
       <c r="E254" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255">
@@ -4551,7 +4509,7 @@
         <v>1981.0</v>
       </c>
       <c r="E255" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256">
@@ -4568,7 +4526,7 @@
         <v>1982.0</v>
       </c>
       <c r="E256" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257">
@@ -4585,7 +4543,7 @@
         <v>1983.0</v>
       </c>
       <c r="E257" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258">
@@ -4602,7 +4560,7 @@
         <v>1984.0</v>
       </c>
       <c r="E258" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259">
@@ -4619,7 +4577,7 @@
         <v>1985.0</v>
       </c>
       <c r="E259" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260">
@@ -4636,7 +4594,7 @@
         <v>1986.0</v>
       </c>
       <c r="E260" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261">
@@ -4653,7 +4611,7 @@
         <v>1987.0</v>
       </c>
       <c r="E261" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262">
@@ -4670,7 +4628,7 @@
         <v>1988.0</v>
       </c>
       <c r="E262" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="263">
@@ -4687,7 +4645,7 @@
         <v>1989.0</v>
       </c>
       <c r="E263" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264">
@@ -4704,7 +4662,7 @@
         <v>1990.0</v>
       </c>
       <c r="E264" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265">
@@ -4721,7 +4679,7 @@
         <v>1991.0</v>
       </c>
       <c r="E265" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266">
@@ -4738,7 +4696,7 @@
         <v>1992.0</v>
       </c>
       <c r="E266" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267">
@@ -4755,7 +4713,7 @@
         <v>1993.0</v>
       </c>
       <c r="E267" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="268">
@@ -4772,7 +4730,7 @@
         <v>1994.0</v>
       </c>
       <c r="E268" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269">
@@ -4789,7 +4747,7 @@
         <v>1995.0</v>
       </c>
       <c r="E269" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="270">
@@ -4806,7 +4764,7 @@
         <v>1996.0</v>
       </c>
       <c r="E270" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271">
@@ -4823,7 +4781,7 @@
         <v>1997.0</v>
       </c>
       <c r="E271" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272">
@@ -4840,7 +4798,7 @@
         <v>1998.0</v>
       </c>
       <c r="E272" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273">
@@ -4857,7 +4815,7 @@
         <v>1999.0</v>
       </c>
       <c r="E273" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="274">
@@ -4874,7 +4832,7 @@
         <v>2000.0</v>
       </c>
       <c r="E274" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275">
@@ -4891,7 +4849,7 @@
         <v>2001.0</v>
       </c>
       <c r="E275" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276">
@@ -4908,7 +4866,7 @@
         <v>2002.0</v>
       </c>
       <c r="E276" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="277">
@@ -4925,7 +4883,7 @@
         <v>2003.0</v>
       </c>
       <c r="E277" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278">
@@ -4942,7 +4900,7 @@
         <v>2004.0</v>
       </c>
       <c r="E278" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="279">
@@ -4959,7 +4917,7 @@
         <v>2005.0</v>
       </c>
       <c r="E279" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="280">
@@ -4976,7 +4934,7 @@
         <v>2006.0</v>
       </c>
       <c r="E280" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="281">
@@ -4993,7 +4951,7 @@
         <v>2007.0</v>
       </c>
       <c r="E281" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282">
@@ -5010,7 +4968,7 @@
         <v>2008.0</v>
       </c>
       <c r="E282" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="283">
@@ -5027,7 +4985,7 @@
         <v>2009.0</v>
       </c>
       <c r="E283" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="284">
@@ -5044,7 +5002,7 @@
         <v>2010.0</v>
       </c>
       <c r="E284" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="285">
@@ -5061,7 +5019,7 @@
         <v>2011.0</v>
       </c>
       <c r="E285" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="286">
@@ -5078,7 +5036,7 @@
         <v>2012.0</v>
       </c>
       <c r="E286" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5096,50 +5054,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
